--- a/www/IndicatorsPerCountry/Namibia_CopperProduction_TerritorialRef_1990_2012_CCode_516.xlsx
+++ b/www/IndicatorsPerCountry/Namibia_CopperProduction_TerritorialRef_1990_2012_CCode_516.xlsx
@@ -303,13 +303,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Namibia_CopperProduction_TerritorialRef_1990_2012_CCode_516.xlsx
+++ b/www/IndicatorsPerCountry/Namibia_CopperProduction_TerritorialRef_1990_2012_CCode_516.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="89">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,241 +39,211 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>9.7</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>9.9</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>23.8</t>
-  </si>
-  <si>
-    <t>25.2</t>
-  </si>
-  <si>
-    <t>24.8</t>
-  </si>
-  <si>
-    <t>24.4</t>
-  </si>
-  <si>
-    <t>22.5</t>
-  </si>
-  <si>
-    <t>27.9</t>
-  </si>
-  <si>
-    <t>28.6</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>28.2</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
-    <t>28.8</t>
-  </si>
-  <si>
-    <t>28.9</t>
-  </si>
-  <si>
-    <t>29.2</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>24.9</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>41.9</t>
+  </si>
+  <si>
+    <t>39.2</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>52.1</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>43.5</t>
+  </si>
+  <si>
+    <t>44.7</t>
+  </si>
+  <si>
+    <t>36.1</t>
+  </si>
+  <si>
+    <t>39.8</t>
+  </si>
+  <si>
+    <t>31.6</t>
   </si>
   <si>
     <t>31.1</t>
   </si>
   <si>
-    <t>22.2</t>
-  </si>
-  <si>
-    <t>22.1</t>
-  </si>
-  <si>
-    <t>30.2</t>
-  </si>
-  <si>
-    <t>32.9</t>
-  </si>
-  <si>
-    <t>27.3</t>
-  </si>
-  <si>
-    <t>25.8</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>30.1</t>
-  </si>
-  <si>
-    <t>20.8</t>
-  </si>
-  <si>
-    <t>25.4</t>
-  </si>
-  <si>
-    <t>32.8</t>
-  </si>
-  <si>
-    <t>24.7</t>
-  </si>
-  <si>
-    <t>26.6</t>
-  </si>
-  <si>
-    <t>21.1</t>
-  </si>
-  <si>
-    <t>31.5</t>
-  </si>
-  <si>
-    <t>37.7</t>
-  </si>
-  <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>39.8</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
-    <t>39.163</t>
-  </si>
-  <si>
-    <t>34.902</t>
-  </si>
-  <si>
-    <t>40.085</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>73.051</t>
-  </si>
-  <si>
-    <t>76.253</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>104.3</t>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>26.55</t>
+  </si>
+  <si>
+    <t>22.53</t>
+  </si>
+  <si>
+    <t>14.904</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>5.62</t>
+  </si>
+  <si>
+    <t>12.392</t>
+  </si>
+  <si>
+    <t>18.01</t>
+  </si>
+  <si>
+    <t>16.175</t>
+  </si>
+  <si>
+    <t>11.174</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>7.471</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>5.304</t>
   </si>
   <si>
     <t>Description</t>
@@ -3281,7 +3251,7 @@
         <v>1897.0</v>
       </c>
       <c r="E172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
@@ -3298,7 +3268,7 @@
         <v>1898.0</v>
       </c>
       <c r="E173" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
@@ -3315,7 +3285,7 @@
         <v>1899.0</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
@@ -3332,7 +3302,7 @@
         <v>1900.0</v>
       </c>
       <c r="E175" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -3349,7 +3319,7 @@
         <v>1901.0</v>
       </c>
       <c r="E176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
@@ -3366,7 +3336,7 @@
         <v>1902.0</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
@@ -3383,7 +3353,7 @@
         <v>1903.0</v>
       </c>
       <c r="E178" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
@@ -3400,7 +3370,7 @@
         <v>1904.0</v>
       </c>
       <c r="E179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -3417,7 +3387,7 @@
         <v>1905.0</v>
       </c>
       <c r="E180" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
@@ -3434,7 +3404,7 @@
         <v>1906.0</v>
       </c>
       <c r="E181" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
@@ -3451,7 +3421,7 @@
         <v>1907.0</v>
       </c>
       <c r="E182" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183">
@@ -3468,7 +3438,7 @@
         <v>1908.0</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
@@ -3485,7 +3455,7 @@
         <v>1909.0</v>
       </c>
       <c r="E184" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
@@ -3502,7 +3472,7 @@
         <v>1910.0</v>
       </c>
       <c r="E185" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186">
@@ -3536,7 +3506,7 @@
         <v>1912.0</v>
       </c>
       <c r="E187" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
@@ -3553,7 +3523,7 @@
         <v>1913.0</v>
       </c>
       <c r="E188" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
@@ -3672,7 +3642,7 @@
         <v>1920.0</v>
       </c>
       <c r="E195" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196">
@@ -3689,7 +3659,7 @@
         <v>1921.0</v>
       </c>
       <c r="E196" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197">
@@ -3706,7 +3676,7 @@
         <v>1922.0</v>
       </c>
       <c r="E197" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198">
@@ -3723,7 +3693,7 @@
         <v>1923.0</v>
       </c>
       <c r="E198" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199">
@@ -3740,7 +3710,7 @@
         <v>1924.0</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200">
@@ -3757,7 +3727,7 @@
         <v>1925.0</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201">
@@ -3774,7 +3744,7 @@
         <v>1926.0</v>
       </c>
       <c r="E201" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202">
@@ -3791,7 +3761,7 @@
         <v>1927.0</v>
       </c>
       <c r="E202" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
@@ -3808,7 +3778,7 @@
         <v>1928.0</v>
       </c>
       <c r="E203" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204">
@@ -3825,7 +3795,7 @@
         <v>1929.0</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205">
@@ -3842,7 +3812,7 @@
         <v>1930.0</v>
       </c>
       <c r="E205" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206">
@@ -3859,7 +3829,7 @@
         <v>1931.0</v>
       </c>
       <c r="E206" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207">
@@ -3876,7 +3846,7 @@
         <v>1932.0</v>
       </c>
       <c r="E207" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
@@ -3961,7 +3931,7 @@
         <v>1937.0</v>
       </c>
       <c r="E212" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213">
@@ -3978,7 +3948,7 @@
         <v>1938.0</v>
       </c>
       <c r="E213" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214">
@@ -3995,7 +3965,7 @@
         <v>1939.0</v>
       </c>
       <c r="E214" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215">
@@ -4012,7 +3982,7 @@
         <v>1940.0</v>
       </c>
       <c r="E215" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216">
@@ -4029,7 +3999,7 @@
         <v>1941.0</v>
       </c>
       <c r="E216" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
@@ -4046,7 +4016,7 @@
         <v>1942.0</v>
       </c>
       <c r="E217" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
@@ -4063,7 +4033,7 @@
         <v>1943.0</v>
       </c>
       <c r="E218" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219">
@@ -4080,7 +4050,7 @@
         <v>1944.0</v>
       </c>
       <c r="E219" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
@@ -4097,7 +4067,7 @@
         <v>1945.0</v>
       </c>
       <c r="E220" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
@@ -4114,7 +4084,7 @@
         <v>1946.0</v>
       </c>
       <c r="E221" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
@@ -4131,7 +4101,7 @@
         <v>1947.0</v>
       </c>
       <c r="E222" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223">
@@ -4148,7 +4118,7 @@
         <v>1948.0</v>
       </c>
       <c r="E223" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="224">
@@ -4165,7 +4135,7 @@
         <v>1949.0</v>
       </c>
       <c r="E224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="225">
@@ -4182,7 +4152,7 @@
         <v>1950.0</v>
       </c>
       <c r="E225" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226">
@@ -4199,7 +4169,7 @@
         <v>1951.0</v>
       </c>
       <c r="E226" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="227">
@@ -4216,7 +4186,7 @@
         <v>1952.0</v>
       </c>
       <c r="E227" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228">
@@ -4233,7 +4203,7 @@
         <v>1953.0</v>
       </c>
       <c r="E228" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229">
@@ -4250,7 +4220,7 @@
         <v>1954.0</v>
       </c>
       <c r="E229" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="230">
@@ -4284,7 +4254,7 @@
         <v>1956.0</v>
       </c>
       <c r="E231" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="232">
@@ -4301,7 +4271,7 @@
         <v>1957.0</v>
       </c>
       <c r="E232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="233">
@@ -4318,7 +4288,7 @@
         <v>1958.0</v>
       </c>
       <c r="E233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="234">
@@ -4335,7 +4305,7 @@
         <v>1959.0</v>
       </c>
       <c r="E234" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="235">
@@ -4352,7 +4322,7 @@
         <v>1960.0</v>
       </c>
       <c r="E235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="236">
@@ -4369,7 +4339,7 @@
         <v>1961.0</v>
       </c>
       <c r="E236" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="237">
@@ -4386,7 +4356,7 @@
         <v>1962.0</v>
       </c>
       <c r="E237" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="238">
@@ -4403,7 +4373,7 @@
         <v>1963.0</v>
       </c>
       <c r="E238" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="239">
@@ -4437,7 +4407,7 @@
         <v>1965.0</v>
       </c>
       <c r="E240" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241">
@@ -4454,7 +4424,7 @@
         <v>1966.0</v>
       </c>
       <c r="E241" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="242">
@@ -4471,7 +4441,7 @@
         <v>1967.0</v>
       </c>
       <c r="E242" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="243">
@@ -4488,7 +4458,7 @@
         <v>1968.0</v>
       </c>
       <c r="E243" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="244">
@@ -4505,7 +4475,7 @@
         <v>1969.0</v>
       </c>
       <c r="E244" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="245">
@@ -4522,7 +4492,7 @@
         <v>1970.0</v>
       </c>
       <c r="E245" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="246">
@@ -4539,7 +4509,7 @@
         <v>1971.0</v>
       </c>
       <c r="E246" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247">
@@ -4556,7 +4526,7 @@
         <v>1972.0</v>
       </c>
       <c r="E247" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="248">
@@ -4573,7 +4543,7 @@
         <v>1973.0</v>
       </c>
       <c r="E248" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249">
@@ -4590,7 +4560,7 @@
         <v>1974.0</v>
       </c>
       <c r="E249" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="250">
@@ -4607,7 +4577,7 @@
         <v>1975.0</v>
       </c>
       <c r="E250" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="251">
@@ -4624,7 +4594,7 @@
         <v>1976.0</v>
       </c>
       <c r="E251" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="252">
@@ -4641,7 +4611,7 @@
         <v>1977.0</v>
       </c>
       <c r="E252" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="253">
@@ -4658,7 +4628,7 @@
         <v>1978.0</v>
       </c>
       <c r="E253" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="254">
@@ -4675,7 +4645,7 @@
         <v>1979.0</v>
       </c>
       <c r="E254" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="255">
@@ -4692,7 +4662,7 @@
         <v>1980.0</v>
       </c>
       <c r="E255" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="256">
@@ -4709,7 +4679,7 @@
         <v>1981.0</v>
       </c>
       <c r="E256" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="257">
@@ -4726,7 +4696,7 @@
         <v>1982.0</v>
       </c>
       <c r="E257" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="258">
@@ -4743,7 +4713,7 @@
         <v>1983.0</v>
       </c>
       <c r="E258" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="259">
@@ -4760,7 +4730,7 @@
         <v>1984.0</v>
       </c>
       <c r="E259" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="260">
@@ -4777,7 +4747,7 @@
         <v>1985.0</v>
       </c>
       <c r="E260" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="261">
@@ -4794,7 +4764,7 @@
         <v>1986.0</v>
       </c>
       <c r="E261" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="262">
@@ -4811,7 +4781,7 @@
         <v>1987.0</v>
       </c>
       <c r="E262" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263">
@@ -4828,7 +4798,7 @@
         <v>1988.0</v>
       </c>
       <c r="E263" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="264">
@@ -4845,7 +4815,7 @@
         <v>1989.0</v>
       </c>
       <c r="E264" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="265">
@@ -4862,7 +4832,7 @@
         <v>1990.0</v>
       </c>
       <c r="E265" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="266">
@@ -4879,7 +4849,7 @@
         <v>1991.0</v>
       </c>
       <c r="E266" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="267">
@@ -4896,7 +4866,7 @@
         <v>1992.0</v>
       </c>
       <c r="E267" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268">
@@ -4913,7 +4883,7 @@
         <v>1993.0</v>
       </c>
       <c r="E268" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="269">
@@ -4930,7 +4900,7 @@
         <v>1994.0</v>
       </c>
       <c r="E269" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="270">
@@ -4947,7 +4917,7 @@
         <v>1995.0</v>
       </c>
       <c r="E270" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="271">
@@ -4964,7 +4934,7 @@
         <v>1996.0</v>
       </c>
       <c r="E271" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="272">
@@ -4981,7 +4951,7 @@
         <v>1997.0</v>
       </c>
       <c r="E272" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="273">
@@ -4998,7 +4968,7 @@
         <v>1998.0</v>
       </c>
       <c r="E273" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="274">
@@ -5015,7 +4985,7 @@
         <v>1999.0</v>
       </c>
       <c r="E274" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275">
@@ -5032,7 +5002,7 @@
         <v>2000.0</v>
       </c>
       <c r="E275" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="276">
@@ -5049,7 +5019,7 @@
         <v>2001.0</v>
       </c>
       <c r="E276" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="277">
@@ -5066,7 +5036,7 @@
         <v>2002.0</v>
       </c>
       <c r="E277" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="278">
@@ -5083,7 +5053,7 @@
         <v>2003.0</v>
       </c>
       <c r="E278" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="279">
@@ -5100,7 +5070,7 @@
         <v>2004.0</v>
       </c>
       <c r="E279" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="280">
@@ -5117,7 +5087,7 @@
         <v>2005.0</v>
       </c>
       <c r="E280" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="281">
@@ -5134,7 +5104,7 @@
         <v>2006.0</v>
       </c>
       <c r="E281" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282">
@@ -5151,7 +5121,7 @@
         <v>2007.0</v>
       </c>
       <c r="E282" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="283">
@@ -5168,7 +5138,7 @@
         <v>2008.0</v>
       </c>
       <c r="E283" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="284">
@@ -5185,7 +5155,7 @@
         <v>2009.0</v>
       </c>
       <c r="E284" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285">
@@ -5202,7 +5172,7 @@
         <v>2010.0</v>
       </c>
       <c r="E285" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286">
@@ -5219,7 +5189,7 @@
         <v>2011.0</v>
       </c>
       <c r="E286" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="287">
@@ -5236,7 +5206,7 @@
         <v>2012.0</v>
       </c>
       <c r="E287" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5254,50 +5224,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
